--- a/Publication Data/Petryshen_2023_Moss_Data.xlsx
+++ b/Publication Data/Petryshen_2023_Moss_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wyattpetryshen/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Geoscience:Engineering/Moss Study/Submission Folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC41481F-C99A-D84A-B596-A709256FFFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6E655B-01C8-9A4B-A23A-FE52C0DB3549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="760" windowWidth="26040" windowHeight="20200" xr2:uid="{ABD24E13-A938-3945-83C7-0A1A202B73AE}"/>
+    <workbookView xWindow="-28080" yWindow="660" windowWidth="26040" windowHeight="20200" activeTab="6" xr2:uid="{ABD24E13-A938-3945-83C7-0A1A202B73AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Original Data" sheetId="2" r:id="rId1"/>
@@ -20,8 +20,6 @@
     <sheet name="Summary Statistics No Site 11" sheetId="6" r:id="rId5"/>
     <sheet name="Contamination Factor Data" sheetId="9" r:id="rId6"/>
     <sheet name="Pearson Correlation Coefficient" sheetId="14" r:id="rId7"/>
-    <sheet name="ANOVA Species" sheetId="12" r:id="rId8"/>
-    <sheet name="Lm Sample Weight" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="117">
   <si>
     <t>Site</t>
   </si>
@@ -286,9 +284,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Hylocomium splendins</t>
-  </si>
-  <si>
     <t>Pleurozium schreberi</t>
   </si>
   <si>
@@ -382,36 +377,6 @@
     <t>Inf</t>
   </si>
   <si>
-    <t>DF</t>
-  </si>
-  <si>
-    <t>Mean Sq</t>
-  </si>
-  <si>
-    <t>Sum Sq</t>
-  </si>
-  <si>
-    <t>F Value</t>
-  </si>
-  <si>
-    <t>Pr(&gt;F)</t>
-  </si>
-  <si>
-    <t>Levene F Value</t>
-  </si>
-  <si>
-    <t>Levene Pr(&gt;F)</t>
-  </si>
-  <si>
-    <t>Adjusted R-sq</t>
-  </si>
-  <si>
-    <t>t value</t>
-  </si>
-  <si>
-    <t>Pr(&gt;|t|)</t>
-  </si>
-  <si>
     <t>p.value</t>
   </si>
   <si>
@@ -425,6 +390,9 @@
   </si>
   <si>
     <t>Contamination Factor</t>
+  </si>
+  <si>
+    <t>Hylocomium splendens</t>
   </si>
 </sst>
 </file>
@@ -479,7 +447,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,6 +502,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -562,7 +536,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -577,6 +550,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -893,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F08247-5E76-4945-AAAA-8D6032759AD2}">
   <dimension ref="A1:BU34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1128,222 +1102,222 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:73" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20">
+    <row r="2" spans="1:73" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="19">
         <v>662023</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="19">
         <v>5524556</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="19">
         <v>-114.746064318584</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="19">
         <v>49.851494985961999</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="19">
         <v>1709</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="19">
         <v>1</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="19">
         <f>54-6</f>
         <v>48</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2" s="19">
         <v>8217</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2" s="19">
         <v>12920.99</v>
       </c>
-      <c r="O2" s="20">
+      <c r="O2" s="19">
         <v>13056.4966117847</v>
       </c>
-      <c r="P2" s="20">
+      <c r="P2" s="19">
         <v>11280.054646435399</v>
       </c>
-      <c r="Q2" s="21">
+      <c r="Q2" s="20">
         <v>8206.9033299999992</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="R2" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="S2" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="U2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="V2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="W2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="X2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AT2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AV2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BA2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BB2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BD2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BE2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BF2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BG2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BH2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BI2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BJ2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BK2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BL2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BM2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BN2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BO2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BP2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BQ2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BR2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BS2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BT2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BU2" s="20" t="s">
+      <c r="U2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="V2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="W2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="X2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BL2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BP2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BQ2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BR2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BU2" s="19" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1370,7 +1344,7 @@
         <v>1522</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="I3" s="2">
         <v>2</v>
@@ -1589,7 +1563,7 @@
         <v>1522</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -1808,7 +1782,7 @@
         <v>1522</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -2027,7 +2001,7 @@
         <v>1489</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="I6" s="2">
         <v>3</v>
@@ -2223,222 +2197,222 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="7" spans="1:73" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20">
+    <row r="7" spans="1:73" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>659177</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>5520582</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>-114.78725518378801</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <v>49.8165410609367</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <v>1625</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="19">
         <v>4</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="19">
         <f>8-6</f>
         <v>2</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="19">
         <v>3449</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="19">
         <v>8399.2000000000007</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7" s="19">
         <v>8386.6318691778797</v>
       </c>
-      <c r="P7" s="20">
+      <c r="P7" s="19">
         <v>15122.1330180689</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="Q7" s="20">
         <v>8438.3309700000009</v>
       </c>
-      <c r="R7" s="21">
+      <c r="R7" s="20">
         <v>15.6829882141817</v>
       </c>
-      <c r="S7" s="21">
+      <c r="S7" s="20">
         <v>185.28194583227199</v>
       </c>
-      <c r="T7" s="21">
+      <c r="T7" s="20">
         <v>146.90535315512199</v>
       </c>
-      <c r="U7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="V7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="W7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="X7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AT7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AV7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BA7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BB7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BD7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BE7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BF7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BG7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BH7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BI7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BJ7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BK7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BL7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BM7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BN7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BO7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BP7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BQ7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BR7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BS7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BT7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BU7" s="20" t="s">
+      <c r="U7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="V7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="W7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="X7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BL7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BP7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BQ7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BR7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BU7" s="19" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2464,8 +2438,8 @@
       <c r="G8">
         <v>1283</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>80</v>
+      <c r="H8" s="26" t="s">
+        <v>116</v>
       </c>
       <c r="I8" s="2">
         <v>5</v>
@@ -2684,7 +2658,7 @@
         <v>1283</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I9">
         <v>5</v>
@@ -2903,7 +2877,7 @@
         <v>1283</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I10">
         <v>5</v>
@@ -3122,7 +3096,7 @@
         <v>1206</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I11" s="2">
         <v>6</v>
@@ -3341,7 +3315,7 @@
         <v>1205</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="I12" s="2">
         <v>7</v>
@@ -3560,7 +3534,7 @@
         <v>1150</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I13" s="2">
         <v>8</v>
@@ -3778,8 +3752,8 @@
       <c r="G14">
         <v>1139</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>80</v>
+      <c r="H14" s="26" t="s">
+        <v>116</v>
       </c>
       <c r="I14" s="2">
         <v>9</v>
@@ -3996,8 +3970,8 @@
       <c r="G15">
         <v>1139</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>80</v>
+      <c r="H15" s="26" t="s">
+        <v>116</v>
       </c>
       <c r="I15">
         <v>9</v>
@@ -4215,8 +4189,8 @@
       <c r="G16">
         <v>1139</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>80</v>
+      <c r="H16" s="26" t="s">
+        <v>116</v>
       </c>
       <c r="I16">
         <v>9</v>
@@ -4435,7 +4409,7 @@
         <v>1274</v>
       </c>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I17" s="2">
         <v>10</v>
@@ -4654,7 +4628,7 @@
         <v>1166</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I18">
         <v>11</v>
@@ -4850,222 +4824,222 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="19" spans="1:73" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="20">
+    <row r="19" spans="1:73" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="19">
         <v>18</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="19">
         <v>650899</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="19">
         <v>5509409</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="19">
         <v>-114.906576732204</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="19">
         <v>49.718252986038301</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="19">
         <v>1166</v>
       </c>
-      <c r="H19" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" s="20">
-        <v>11</v>
-      </c>
-      <c r="J19" s="20">
+      <c r="H19" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="19">
+        <v>12</v>
+      </c>
+      <c r="J19" s="19">
         <f>18-6</f>
         <v>12</v>
       </c>
-      <c r="L19" s="20" t="s">
+      <c r="L19" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="M19" s="20">
+      <c r="M19" s="19">
         <v>5087</v>
       </c>
-      <c r="N19" s="20">
+      <c r="N19" s="19">
         <v>7711.29</v>
       </c>
-      <c r="O19" s="20">
+      <c r="O19" s="19">
         <v>6946.6581909710803</v>
       </c>
-      <c r="P19" s="20">
+      <c r="P19" s="19">
         <v>27838.830150355399</v>
       </c>
-      <c r="Q19" s="21">
+      <c r="Q19" s="20">
         <v>18438.346099999999</v>
       </c>
-      <c r="R19" s="21">
+      <c r="R19" s="20">
         <v>245.73838937143901</v>
       </c>
-      <c r="S19" s="21">
+      <c r="S19" s="20">
         <v>201.05099527714199</v>
       </c>
-      <c r="T19" s="21">
+      <c r="T19" s="20">
         <v>192.49077485458301</v>
       </c>
-      <c r="U19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="V19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="W19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="X19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AT19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AV19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BA19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BB19" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BD19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BE19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BF19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BG19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BH19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BI19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BJ19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BK19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BL19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BM19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BN19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BO19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BP19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BQ19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BR19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BS19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BT19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="BU19" s="20" t="s">
+      <c r="U19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="V19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="W19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="X19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB19" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BL19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BP19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BQ19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BR19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BU19" s="19" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5092,10 +5066,10 @@
         <v>1364</v>
       </c>
       <c r="H20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I20" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J20">
         <f>22-6</f>
@@ -5311,10 +5285,10 @@
         <v>1692</v>
       </c>
       <c r="H21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I21" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J21">
         <f>25-6</f>
@@ -5530,10 +5504,10 @@
         <v>1635</v>
       </c>
       <c r="H22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I22" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J22">
         <f>27-6</f>
@@ -5749,10 +5723,10 @@
         <v>1510</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I23" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J23">
         <f>16-6</f>
@@ -5968,10 +5942,10 @@
         <v>1510</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J24">
         <f>24-6</f>
@@ -6187,10 +6161,10 @@
         <v>1446</v>
       </c>
       <c r="H25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I25" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J25">
         <f>33-6</f>
@@ -6405,11 +6379,11 @@
       <c r="G26">
         <v>1366</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>80</v>
+      <c r="H26" s="26" t="s">
+        <v>116</v>
       </c>
       <c r="I26" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J26">
         <f>29-6</f>
@@ -6625,10 +6599,10 @@
         <v>1366</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I27">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J27">
         <v>40</v>
@@ -6842,11 +6816,11 @@
       <c r="G28">
         <v>1366</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>80</v>
+      <c r="H28" s="26" t="s">
+        <v>116</v>
       </c>
       <c r="I28">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J28">
         <v>28</v>
@@ -7061,10 +7035,10 @@
         <v>1066</v>
       </c>
       <c r="H29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I29" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J29">
         <f>16-6</f>
@@ -7280,10 +7254,10 @@
         <v>1385</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I30">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J30">
         <v>11</v>
@@ -7498,10 +7472,10 @@
         <v>1385</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I31" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J31">
         <f>18-6</f>
@@ -7717,10 +7691,10 @@
         <v>1479</v>
       </c>
       <c r="H32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I32" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J32">
         <f>21-6</f>
@@ -7936,10 +7910,10 @@
         <v>1699</v>
       </c>
       <c r="H33" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="I33" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J33">
         <f>30-6</f>
@@ -8155,10 +8129,10 @@
         <v>1053</v>
       </c>
       <c r="H34" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="I34" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J34">
         <v>42</v>
@@ -8360,7 +8334,7 @@
   <dimension ref="A1:BU20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="BI25" sqref="BI25"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8388,13 +8362,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
@@ -8403,10 +8377,10 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>14</v>
@@ -8609,7 +8583,7 @@
         <v>1522</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -8830,7 +8804,7 @@
         <v>1489</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="I3">
         <v>3</v>
@@ -9051,7 +9025,7 @@
         <v>1283</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="I4">
         <v>5</v>
@@ -9272,7 +9246,7 @@
         <v>1206</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I5">
         <v>6</v>
@@ -9493,7 +9467,7 @@
         <v>1150</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I6">
         <v>8</v>
@@ -9714,7 +9688,7 @@
         <v>1139</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="I7">
         <v>9</v>
@@ -9935,7 +9909,7 @@
         <v>1274</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I8">
         <v>10</v>
@@ -10156,7 +10130,7 @@
         <v>1166</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I9">
         <v>11</v>
@@ -10377,7 +10351,7 @@
         <v>1364</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10">
         <v>12</v>
@@ -10598,7 +10572,7 @@
         <v>1692</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I11">
         <v>13</v>
@@ -10819,7 +10793,7 @@
         <v>1635</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I12">
         <v>14</v>
@@ -11040,7 +11014,7 @@
         <v>1510</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I13">
         <v>15</v>
@@ -11261,7 +11235,7 @@
         <v>1446</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I14">
         <v>16</v>
@@ -11482,7 +11456,7 @@
         <v>1366</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="I15">
         <v>17</v>
@@ -11703,7 +11677,7 @@
         <v>1066</v>
       </c>
       <c r="H16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I16">
         <v>18</v>
@@ -11924,7 +11898,7 @@
         <v>1385</v>
       </c>
       <c r="H17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I17">
         <v>19</v>
@@ -12145,7 +12119,7 @@
         <v>1479</v>
       </c>
       <c r="H18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I18">
         <v>20</v>
@@ -12366,7 +12340,7 @@
         <v>1699</v>
       </c>
       <c r="H19" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="I19">
         <v>21</v>
@@ -12587,7 +12561,7 @@
         <v>1053</v>
       </c>
       <c r="H20" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="I20">
         <v>22</v>
@@ -12794,7 +12768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668AADC6-486C-2041-9660-434E5001C24C}">
   <dimension ref="A1:BN31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="T1" workbookViewId="0">
       <selection activeCell="BK14" sqref="BK14"/>
     </sheetView>
   </sheetViews>
@@ -12802,7 +12776,7 @@
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -13056,10 +13030,10 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="C3" s="7">
         <v>659292</v>
@@ -13078,7 +13052,7 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N3" s="7">
         <v>2.9999999999999997E-4</v>
@@ -13254,7 +13228,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N4" s="3">
         <v>2.0000000000000001E-4</v>
@@ -13430,7 +13404,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N5" s="3">
         <v>4.0000000000000002E-4</v>
@@ -13606,7 +13580,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N6" s="3">
         <v>6.6666700000000001E-9</v>
@@ -13838,7 +13812,7 @@
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>73</v>
@@ -13860,7 +13834,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N8" s="7">
         <v>5.6666699999999997E-4</v>
@@ -14036,7 +14010,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N9" s="3">
         <v>5.0000000000000001E-4</v>
@@ -14212,7 +14186,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N10" s="3">
         <v>5.9999999999999995E-4</v>
@@ -14388,7 +14362,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N11" s="3">
         <v>2.2222199999999998E-9</v>
@@ -14620,7 +14594,7 @@
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>73</v>
@@ -14642,7 +14616,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N13" s="7">
         <v>5.0000000000000001E-4</v>
@@ -14818,7 +14792,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N14" s="3">
         <v>4.0000000000000002E-4</v>
@@ -14994,7 +14968,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N15" s="3">
         <v>5.9999999999999995E-4</v>
@@ -15170,7 +15144,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N16" s="3">
         <v>6.6666700000000001E-9</v>
@@ -15402,7 +15376,7 @@
     </row>
     <row r="18" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>73</v>
@@ -15424,7 +15398,7 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N18" s="7">
         <v>6.9999999999999999E-4</v>
@@ -15600,7 +15574,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N19" s="3">
         <v>5.9999999999999995E-4</v>
@@ -15776,7 +15750,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N20" s="3">
         <v>8.0000000000000004E-4</v>
@@ -15952,7 +15926,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N21" s="3">
         <v>1E-8</v>
@@ -16184,7 +16158,7 @@
     </row>
     <row r="23" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>73</v>
@@ -16206,7 +16180,7 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N23" s="7">
         <v>6.6666700000000002E-4</v>
@@ -16382,7 +16356,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N24" s="3">
         <v>5.0000000000000001E-4</v>
@@ -16558,7 +16532,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N25" s="3">
         <v>8.0000000000000004E-4</v>
@@ -16734,7 +16708,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N26" s="3">
         <v>1.5555599999999999E-8</v>
@@ -16966,7 +16940,7 @@
     </row>
     <row r="28" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>73</v>
@@ -16988,7 +16962,7 @@
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N28" s="7">
         <v>4.4999999999999999E-4</v>
@@ -17164,7 +17138,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N29" s="3">
         <v>4.0000000000000002E-4</v>
@@ -17340,7 +17314,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N30" s="3">
         <v>5.0000000000000001E-4</v>
@@ -17516,7 +17490,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N31" s="3">
         <v>2.5000000000000001E-9</v>
@@ -17688,7 +17662,7 @@
   <dimension ref="A1:CU85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17908,7 +17882,7 @@
     </row>
     <row r="2" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="5">
         <v>2.0000000000000001E-4</v>
@@ -18117,7 +18091,7 @@
     </row>
     <row r="3" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3">
         <v>3.5999999999999999E-3</v>
@@ -18326,7 +18300,7 @@
     </row>
     <row r="4" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4">
         <v>3.5999999999999999E-3</v>
@@ -18535,7 +18509,7 @@
     </row>
     <row r="5" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="5">
         <v>5.1498464912280702E-7</v>
@@ -18744,7 +18718,7 @@
     </row>
     <row r="6" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6">
         <v>4.75E-4</v>
@@ -18953,7 +18927,7 @@
     </row>
     <row r="7" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7">
         <v>6.3416666666666699E-4</v>
@@ -19162,7 +19136,7 @@
     </row>
     <row r="8" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8">
         <v>7.1762430917772502E-4</v>
@@ -19371,7 +19345,7 @@
     </row>
     <row r="9" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9">
         <v>1.1316020644064</v>
@@ -19580,7 +19554,7 @@
     </row>
     <row r="10" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10">
         <v>3.7667069311687098</v>
@@ -19789,7 +19763,7 @@
     </row>
     <row r="11" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11">
         <v>16.186713317580502</v>
@@ -20344,42 +20318,42 @@
     </row>
     <row r="28" spans="3:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C28" s="1"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
     </row>
     <row r="29" spans="3:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C29" s="1"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
     </row>
     <row r="30" spans="3:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C30" s="1"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
     </row>
     <row r="31" spans="3:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D31" s="1"/>
@@ -20486,42 +20460,42 @@
     </row>
     <row r="39" spans="3:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C39" s="1"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
     </row>
     <row r="40" spans="3:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C40" s="1"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
     </row>
     <row r="41" spans="3:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C41" s="1"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
     </row>
     <row r="42" spans="3:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D42" s="1"/>
@@ -20537,133 +20511,133 @@
     </row>
     <row r="43" spans="3:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C43" s="1"/>
-      <c r="D43" s="17"/>
+      <c r="D43" s="16"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
-      <c r="K43" s="17"/>
+      <c r="K43" s="16"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
     </row>
     <row r="44" spans="3:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C44" s="1"/>
-      <c r="D44" s="17"/>
+      <c r="D44" s="16"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
-      <c r="K44" s="17"/>
+      <c r="K44" s="16"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
     </row>
     <row r="45" spans="3:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C45" s="1"/>
-      <c r="D45" s="17"/>
+      <c r="D45" s="16"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
-      <c r="K45" s="17"/>
+      <c r="K45" s="16"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
     </row>
     <row r="46" spans="3:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C46" s="1"/>
-      <c r="D46" s="17"/>
+      <c r="D46" s="16"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="17"/>
+      <c r="K46" s="16"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
     </row>
     <row r="47" spans="3:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C47" s="1"/>
-      <c r="D47" s="17"/>
+      <c r="D47" s="16"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
-      <c r="K47" s="17"/>
+      <c r="K47" s="16"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
     </row>
     <row r="48" spans="3:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C48" s="1"/>
-      <c r="D48" s="17"/>
+      <c r="D48" s="16"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
-      <c r="K48" s="17"/>
+      <c r="K48" s="16"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="3:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C49" s="1"/>
-      <c r="D49" s="17"/>
+      <c r="D49" s="16"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
-      <c r="K49" s="17"/>
+      <c r="K49" s="16"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
     </row>
     <row r="50" spans="3:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C50" s="1"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
     </row>
     <row r="51" spans="3:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C51" s="1"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
     </row>
     <row r="52" spans="3:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C52" s="1"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
     </row>
     <row r="53" spans="3:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D53" s="1"/>
@@ -20681,10 +20655,10 @@
       <c r="C54" s="1"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
-      <c r="F54" s="17"/>
+      <c r="F54" s="16"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="17"/>
+      <c r="I54" s="16"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
@@ -20694,10 +20668,10 @@
       <c r="C55" s="1"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
-      <c r="F55" s="17"/>
+      <c r="F55" s="16"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="17"/>
+      <c r="I55" s="16"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
@@ -20707,10 +20681,10 @@
       <c r="C56" s="1"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
-      <c r="F56" s="17"/>
+      <c r="F56" s="16"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="17"/>
+      <c r="I56" s="16"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
@@ -20720,10 +20694,10 @@
       <c r="C57" s="1"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
-      <c r="F57" s="17"/>
+      <c r="F57" s="16"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="17"/>
+      <c r="I57" s="16"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
@@ -20733,10 +20707,10 @@
       <c r="C58" s="1"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
-      <c r="F58" s="17"/>
+      <c r="F58" s="16"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
-      <c r="I58" s="17"/>
+      <c r="I58" s="16"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
@@ -20746,10 +20720,10 @@
       <c r="C59" s="1"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
-      <c r="F59" s="17"/>
+      <c r="F59" s="16"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="17"/>
+      <c r="I59" s="16"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
@@ -20759,10 +20733,10 @@
       <c r="C60" s="1"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
-      <c r="F60" s="17"/>
+      <c r="F60" s="16"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="17"/>
+      <c r="I60" s="16"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
@@ -20770,42 +20744,42 @@
     </row>
     <row r="61" spans="3:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C61" s="1"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
     </row>
     <row r="62" spans="3:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C62" s="1"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
     </row>
     <row r="63" spans="3:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C63" s="1"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="16"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
     </row>
     <row r="64" spans="3:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D64" s="1"/>
@@ -20824,7 +20798,7 @@
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="17"/>
+      <c r="G65" s="16"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
@@ -20837,7 +20811,7 @@
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="17"/>
+      <c r="G66" s="16"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
@@ -20850,7 +20824,7 @@
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
-      <c r="G67" s="17"/>
+      <c r="G67" s="16"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
@@ -20863,7 +20837,7 @@
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="17"/>
+      <c r="G68" s="16"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
@@ -20876,7 +20850,7 @@
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="17"/>
+      <c r="G69" s="16"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
@@ -20889,7 +20863,7 @@
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="17"/>
+      <c r="G70" s="16"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
@@ -20902,7 +20876,7 @@
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="17"/>
+      <c r="G71" s="16"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
@@ -20912,42 +20886,42 @@
     </row>
     <row r="72" spans="3:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C72" s="1"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
     </row>
     <row r="73" spans="3:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C73" s="1"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16"/>
-      <c r="L73" s="16"/>
-      <c r="M73" s="16"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
     </row>
     <row r="74" spans="3:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C74" s="1"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="16"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
     </row>
     <row r="75" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D75" s="1"/>
@@ -20998,21 +20972,21 @@
     </row>
     <row r="83" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C83" s="1"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
     </row>
     <row r="84" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C84" s="1"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
     </row>
     <row r="85" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C85" s="1"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21024,7 +20998,7 @@
   <dimension ref="A1:BB11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AZ2" sqref="AZ2:BB11"/>
+      <selection activeCell="AK6" sqref="AK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21195,7 +21169,7 @@
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="5">
         <v>2.0000000000000001E-4</v>
@@ -21359,7 +21333,7 @@
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="5">
         <v>3.5999999999999999E-3</v>
@@ -21523,7 +21497,7 @@
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="5">
         <v>3.5999999999999999E-3</v>
@@ -21687,7 +21661,7 @@
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="5">
         <v>5.4038823911630901E-7</v>
@@ -21851,7 +21825,7 @@
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="5">
         <v>5.0000000000000001E-4</v>
@@ -22015,7 +21989,7 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="5">
         <v>6.4649122807017496E-4</v>
@@ -22179,7 +22153,7 @@
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="5">
         <v>7.3511103863043001E-4</v>
@@ -22343,7 +22317,7 @@
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="5">
         <v>1.1370781330240001</v>
@@ -22507,7 +22481,7 @@
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" s="5">
         <v>3.6542236392037801</v>
@@ -22671,7 +22645,7 @@
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" s="5">
         <v>15.306258084336999</v>
@@ -22843,7 +22817,7 @@
   <dimension ref="A1:BV21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22874,13 +22848,13 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
@@ -22889,10 +22863,10 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>14</v>
@@ -23098,7 +23072,7 @@
         <v>1522</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -23197,7 +23171,7 @@
         <v>1.6216216216216199</v>
       </c>
       <c r="AP2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ2">
         <v>0.74561403508771895</v>
@@ -23236,13 +23210,13 @@
         <v>79</v>
       </c>
       <c r="BC2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BD2">
         <v>1.88405797101449</v>
       </c>
       <c r="BE2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BF2">
         <v>0.94444444444444398</v>
@@ -23266,7 +23240,7 @@
         <v>1</v>
       </c>
       <c r="BM2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BN2">
         <v>2.7047619047619</v>
@@ -23322,7 +23296,7 @@
         <v>1489</v>
       </c>
       <c r="I3" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="J3">
         <v>3</v>
@@ -23460,13 +23434,13 @@
         <v>79</v>
       </c>
       <c r="BC3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BD3">
         <v>1.1195652173913</v>
       </c>
       <c r="BE3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BF3">
         <v>1</v>
@@ -23490,7 +23464,7 @@
         <v>1</v>
       </c>
       <c r="BM3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BN3">
         <v>1.8285714285714301</v>
@@ -23546,7 +23520,7 @@
         <v>1283</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -23684,13 +23658,13 @@
         <v>79</v>
       </c>
       <c r="BC4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BD4">
         <v>1.4528985507246399</v>
       </c>
       <c r="BE4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BF4">
         <v>1.3333333333333299</v>
@@ -23770,7 +23744,7 @@
         <v>1206</v>
       </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J5">
         <v>6</v>
@@ -23908,7 +23882,7 @@
         <v>79</v>
       </c>
       <c r="BC5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BD5">
         <v>1.60869565217391</v>
@@ -23968,227 +23942,227 @@
         <v>1.11320754716981</v>
       </c>
     </row>
-    <row r="6" spans="1:74" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
+    <row r="6" spans="1:74" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17">
         <v>11</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>11</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>652195</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>5525643</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <v>-114.882254651035</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="18">
         <v>49.863841965256697</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="18">
         <v>1205</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="19">
+      <c r="I6" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" s="18">
         <v>7</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="18">
         <v>45</v>
       </c>
-      <c r="L6" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" s="19" t="s">
+      <c r="L6" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="18">
         <v>7892</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="18">
         <v>14617.01</v>
       </c>
-      <c r="P6" s="19">
+      <c r="P6" s="18">
         <v>14096.735021496899</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q6" s="18">
         <v>12784.501139628699</v>
       </c>
-      <c r="R6" s="19">
+      <c r="R6" s="18">
         <v>2869.8367400000002</v>
       </c>
-      <c r="S6" s="19">
+      <c r="S6" s="18">
         <v>341.10308599718002</v>
       </c>
-      <c r="T6" s="19">
+      <c r="T6" s="18">
         <v>220.01926070366201</v>
       </c>
-      <c r="U6" s="19">
+      <c r="U6" s="18">
         <v>230.903594043846</v>
       </c>
-      <c r="V6" s="19">
+      <c r="V6" s="18">
         <v>0.11111111111111099</v>
       </c>
-      <c r="W6" s="19">
+      <c r="W6" s="18">
         <v>2.0499999999999998</v>
       </c>
-      <c r="X6" s="19">
+      <c r="X6" s="18">
         <v>4.8333333333333304</v>
       </c>
-      <c r="Y6" s="19">
+      <c r="Y6" s="18">
         <v>3.4193548387096802</v>
       </c>
-      <c r="Z6" s="19">
+      <c r="Z6" s="18">
         <v>3</v>
       </c>
-      <c r="AA6" s="19">
+      <c r="AA6" s="18">
         <v>2.1342857142857099</v>
       </c>
-      <c r="AB6" s="19">
+      <c r="AB6" s="18">
         <v>6</v>
       </c>
-      <c r="AC6" s="19">
+      <c r="AC6" s="18">
         <v>2.2941176470588198</v>
       </c>
-      <c r="AD6" s="19">
+      <c r="AD6" s="18">
         <v>1.47826086956522</v>
       </c>
-      <c r="AE6" s="19">
+      <c r="AE6" s="18">
         <v>0.69206349206349205</v>
       </c>
-      <c r="AF6" s="19">
+      <c r="AF6" s="18">
         <v>5.3411513859274997</v>
       </c>
-      <c r="AG6" s="19">
+      <c r="AG6" s="18">
         <v>4.6153846153846096</v>
       </c>
-      <c r="AH6" s="19">
+      <c r="AH6" s="18">
         <v>2.5117370892018802</v>
       </c>
-      <c r="AI6" s="19">
+      <c r="AI6" s="18">
         <v>3.1428571428571401</v>
       </c>
-      <c r="AJ6" s="19">
+      <c r="AJ6" s="18">
         <v>1.4156249999999999</v>
       </c>
-      <c r="AK6" s="19">
+      <c r="AK6" s="18">
         <v>5.1641789999999999</v>
       </c>
-      <c r="AL6" s="19">
+      <c r="AL6" s="18">
         <v>4.5632911392405102</v>
       </c>
-      <c r="AM6" s="19">
+      <c r="AM6" s="18">
         <v>1.71428571428571</v>
       </c>
-      <c r="AN6" s="19">
+      <c r="AN6" s="18">
         <v>3.6666666666666701</v>
       </c>
-      <c r="AO6" s="19">
+      <c r="AO6" s="18">
         <v>0.91891891891891897</v>
       </c>
-      <c r="AP6" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ6" s="19">
+      <c r="AP6" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ6" s="18">
         <v>0.81578947368420995</v>
       </c>
-      <c r="AR6" s="19">
+      <c r="AR6" s="18">
         <v>5.3030303030303001</v>
       </c>
-      <c r="AS6" s="19">
+      <c r="AS6" s="18">
         <v>7.25</v>
       </c>
-      <c r="AT6" s="19">
+      <c r="AT6" s="18">
         <v>1.6930693069306899</v>
       </c>
-      <c r="AU6" s="19">
+      <c r="AU6" s="18">
         <v>2.7447216890594999</v>
       </c>
-      <c r="AV6" s="19">
+      <c r="AV6" s="18">
         <v>1.5365853658536599</v>
       </c>
-      <c r="AW6" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX6" s="19">
+      <c r="AW6" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX6" s="18">
         <v>2.86</v>
       </c>
-      <c r="AY6" s="19">
+      <c r="AY6" s="18">
         <v>3.70394736842105</v>
       </c>
-      <c r="AZ6" s="19">
+      <c r="AZ6" s="18">
         <v>1.0197368421052599</v>
       </c>
-      <c r="BA6" s="19">
+      <c r="BA6" s="18">
         <v>2.42</v>
       </c>
-      <c r="BB6" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC6" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="BD6" s="19">
+      <c r="BB6" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC6" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD6" s="18">
         <v>1.8315217391304299</v>
       </c>
-      <c r="BE6" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="BF6" s="19">
+      <c r="BE6" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF6" s="18">
         <v>0.66666666666666696</v>
       </c>
-      <c r="BG6" s="19">
+      <c r="BG6" s="18">
         <v>1.2</v>
       </c>
-      <c r="BH6" s="19">
+      <c r="BH6" s="18">
         <v>3.6</v>
       </c>
-      <c r="BI6" s="19">
+      <c r="BI6" s="18">
         <v>2.26595744680851</v>
       </c>
-      <c r="BJ6" s="19">
+      <c r="BJ6" s="18">
         <v>1</v>
       </c>
-      <c r="BK6" s="19">
+      <c r="BK6" s="18">
         <v>1.5981308411215001</v>
       </c>
-      <c r="BL6" s="19">
+      <c r="BL6" s="18">
         <v>0.5</v>
       </c>
-      <c r="BM6" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN6" s="19">
+      <c r="BM6" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN6" s="18">
         <v>5.8285714285714301</v>
       </c>
-      <c r="BO6" s="19">
+      <c r="BO6" s="18">
         <v>1</v>
       </c>
-      <c r="BP6" s="19">
+      <c r="BP6" s="18">
         <v>2.4285714285714302</v>
       </c>
-      <c r="BQ6" s="19">
+      <c r="BQ6" s="18">
         <v>4.0625</v>
       </c>
-      <c r="BR6" s="19">
+      <c r="BR6" s="18">
         <v>3.9216867469879499</v>
       </c>
-      <c r="BS6" s="19">
+      <c r="BS6" s="18">
         <v>0.93333333333333302</v>
       </c>
-      <c r="BT6" s="19">
+      <c r="BT6" s="18">
         <v>6.3215258855585796</v>
       </c>
-      <c r="BU6" s="19">
+      <c r="BU6" s="18">
         <v>1.3419913419913401</v>
       </c>
-      <c r="BV6" s="19">
+      <c r="BV6" s="18">
         <v>3.88679245283019</v>
       </c>
     </row>
@@ -24218,7 +24192,7 @@
         <v>1150</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J7">
         <v>8</v>
@@ -24441,8 +24415,8 @@
       <c r="H8">
         <v>1139</v>
       </c>
-      <c r="I8" t="s">
-        <v>80</v>
+      <c r="I8" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="J8">
         <v>9</v>
@@ -24562,7 +24536,7 @@
         <v>0.43699186991869898</v>
       </c>
       <c r="AW8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AX8">
         <v>1.28666666666667</v>
@@ -24577,16 +24551,16 @@
         <v>1.57666666666667</v>
       </c>
       <c r="BB8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BC8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BD8">
         <v>1.25</v>
       </c>
       <c r="BE8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BF8">
         <v>0.94444444444444398</v>
@@ -24666,7 +24640,7 @@
         <v>1274</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J9">
         <v>10</v>
@@ -24804,7 +24778,7 @@
         <v>79</v>
       </c>
       <c r="BC9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BD9">
         <v>2.2119565217391299</v>
@@ -24890,7 +24864,7 @@
         <v>1166</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J10">
         <v>11</v>
@@ -25114,7 +25088,7 @@
         <v>1364</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J11">
         <v>12</v>
@@ -25213,7 +25187,7 @@
         <v>2.13513513513514</v>
       </c>
       <c r="AP11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ11">
         <v>1.1052631578947401</v>
@@ -25252,7 +25226,7 @@
         <v>79</v>
       </c>
       <c r="BC11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BD11">
         <v>1.3695652173913</v>
@@ -25338,7 +25312,7 @@
         <v>1692</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J12">
         <v>13</v>
@@ -25506,7 +25480,7 @@
         <v>1</v>
       </c>
       <c r="BM12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BN12">
         <v>2.22857142857143</v>
@@ -25562,7 +25536,7 @@
         <v>1635</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J13">
         <v>14</v>
@@ -25786,7 +25760,7 @@
         <v>1510</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J14">
         <v>15</v>
@@ -25930,7 +25904,7 @@
         <v>2.1929347826086998</v>
       </c>
       <c r="BE14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BF14">
         <v>1.8333333333333299</v>
@@ -26010,7 +25984,7 @@
         <v>1446</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J15">
         <v>16</v>
@@ -26233,8 +26207,8 @@
       <c r="H16">
         <v>1366</v>
       </c>
-      <c r="I16" t="s">
-        <v>80</v>
+      <c r="I16" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="J16">
         <v>17</v>
@@ -26354,7 +26328,7 @@
         <v>0.14430894308943101</v>
       </c>
       <c r="AW16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AX16">
         <v>0.706666666666667</v>
@@ -26372,7 +26346,7 @@
         <v>79</v>
       </c>
       <c r="BC16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BD16">
         <v>1.1902173913043499</v>
@@ -26458,7 +26432,7 @@
         <v>1066</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J17">
         <v>18</v>
@@ -26578,7 +26552,7 @@
         <v>1.24390243902439</v>
       </c>
       <c r="AW17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AX17">
         <v>0.78</v>
@@ -26596,7 +26570,7 @@
         <v>79</v>
       </c>
       <c r="BC17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BD17">
         <v>0.82065217391304301</v>
@@ -26682,7 +26656,7 @@
         <v>1385</v>
       </c>
       <c r="I18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J18">
         <v>19</v>
@@ -26820,7 +26794,7 @@
         <v>79</v>
       </c>
       <c r="BC18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BD18">
         <v>4.1983695652173898</v>
@@ -26906,7 +26880,7 @@
         <v>1479</v>
       </c>
       <c r="I19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J19">
         <v>20</v>
@@ -27044,7 +27018,7 @@
         <v>79</v>
       </c>
       <c r="BC19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BD19">
         <v>2.47826086956522</v>
@@ -27129,8 +27103,8 @@
       <c r="H20">
         <v>1699</v>
       </c>
-      <c r="I20" t="s">
-        <v>80</v>
+      <c r="I20" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="J20">
         <v>21</v>
@@ -27353,8 +27327,8 @@
       <c r="H21">
         <v>1053</v>
       </c>
-      <c r="I21" t="s">
-        <v>80</v>
+      <c r="I21" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="J21">
         <v>22</v>
@@ -27562,8 +27536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE441CC-8F25-B746-9211-6BCB4A261A04}">
   <dimension ref="A1:AV5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27573,7 +27547,7 @@
   <sheetData>
     <row r="1" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>20</v>
@@ -27719,12 +27693,12 @@
     </row>
     <row r="2" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B2" s="12">
         <v>-1.0294241</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="21">
         <v>9.7996130000000008</v>
       </c>
       <c r="D2" s="12">
@@ -27739,7 +27713,7 @@
       <c r="G2" s="12">
         <v>4.9117661808999999</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="21">
         <v>7.7101249999999997</v>
       </c>
       <c r="I2" s="12">
@@ -27754,7 +27728,7 @@
       <c r="L2" s="12">
         <v>4.1824535182</v>
       </c>
-      <c r="M2" s="22">
+      <c r="M2" s="21">
         <v>7.3805120000000004</v>
       </c>
       <c r="N2" s="12">
@@ -27763,7 +27737,7 @@
       <c r="O2" s="12">
         <v>2.7580123699999999</v>
       </c>
-      <c r="P2" s="22">
+      <c r="P2" s="21">
         <v>6.8984189999999996</v>
       </c>
       <c r="Q2" s="12">
@@ -27772,10 +27746,10 @@
       <c r="R2" s="12">
         <v>5.3524834655999998</v>
       </c>
-      <c r="S2" s="22">
+      <c r="S2" s="21">
         <v>10.903700000000001</v>
       </c>
-      <c r="T2" s="22">
+      <c r="T2" s="21">
         <v>5.804945</v>
       </c>
       <c r="U2" s="12">
@@ -27799,10 +27773,10 @@
       <c r="AA2" s="12">
         <v>-0.32951943</v>
       </c>
-      <c r="AB2" s="22">
+      <c r="AB2" s="21">
         <v>7.680212</v>
       </c>
-      <c r="AC2" s="22">
+      <c r="AC2" s="21">
         <v>9.387359</v>
       </c>
       <c r="AD2" s="12">
@@ -27820,11 +27794,11 @@
       <c r="AH2" s="12">
         <v>4.8164729402999997</v>
       </c>
-      <c r="AI2" s="22">
+      <c r="AI2" s="21">
         <v>5.0446840000000002</v>
       </c>
       <c r="AJ2" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AK2" s="12">
         <v>1.1052472</v>
@@ -27844,51 +27818,51 @@
       <c r="AP2" s="12">
         <v>3.4774369279999999</v>
       </c>
-      <c r="AQ2" s="22">
+      <c r="AQ2" s="21">
         <v>14.74766</v>
       </c>
-      <c r="AR2" s="22">
+      <c r="AR2" s="21">
         <v>13.42131</v>
       </c>
       <c r="AS2" s="12">
         <v>-1.77056608</v>
       </c>
-      <c r="AT2" s="22">
+      <c r="AT2" s="21">
         <v>5.9120020000000002</v>
       </c>
       <c r="AU2" s="12">
         <v>0.85293969999999997</v>
       </c>
-      <c r="AV2" s="22">
+      <c r="AV2" s="21">
         <v>8.3490369999999992</v>
       </c>
     </row>
     <row r="3" spans="1:48" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>122</v>
+      <c r="A3" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="B3" s="13">
         <v>0.31770520000000002</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>2.0813700000000001E-8</v>
       </c>
       <c r="D3" s="13">
         <v>8.1777829999999996E-2</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>1.9034189999999999E-3</v>
       </c>
       <c r="F3" s="13">
         <v>0.65106260000000005</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <v>1.318492E-4</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="14">
         <v>6.010581E-7</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="14">
         <v>1.9323330000000001E-4</v>
       </c>
       <c r="J3" s="13">
@@ -27897,40 +27871,40 @@
       <c r="K3" s="13">
         <v>0.29522169999999998</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="14">
         <v>6.2484680000000003E-4</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="14">
         <v>1.0742049999999999E-6</v>
       </c>
       <c r="N3" s="13">
         <v>5.2711969999999997E-2</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="14">
         <v>1.3440280000000001E-2</v>
       </c>
-      <c r="P3" s="15">
+      <c r="P3" s="14">
         <v>2.5782510000000001E-6</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="Q3" s="14">
         <v>4.3008739999999998E-4</v>
       </c>
-      <c r="R3" s="15">
+      <c r="R3" s="14">
         <v>5.2772899999999997E-5</v>
       </c>
-      <c r="S3" s="15">
+      <c r="S3" s="14">
         <v>4.2937929999999996E-9</v>
       </c>
-      <c r="T3" s="15">
+      <c r="T3" s="14">
         <v>2.1112970000000001E-5</v>
       </c>
-      <c r="U3" s="15">
+      <c r="U3" s="14">
         <v>1.1981450000000001E-3</v>
       </c>
       <c r="V3" s="13">
         <v>0.17657419999999999</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="14">
         <v>4.8194319999999999E-4</v>
       </c>
       <c r="X3" s="13">
@@ -27945,31 +27919,31 @@
       <c r="AA3" s="13">
         <v>0.74578840999999996</v>
       </c>
-      <c r="AB3" s="15">
+      <c r="AB3" s="14">
         <v>6.3320359999999996E-7</v>
       </c>
-      <c r="AC3" s="15">
+      <c r="AC3" s="14">
         <v>3.879046E-8</v>
       </c>
       <c r="AD3" s="13">
         <v>0.19051789999999999</v>
       </c>
-      <c r="AE3" s="15">
+      <c r="AE3" s="14">
         <v>1.290654E-3</v>
       </c>
       <c r="AF3" s="13">
         <v>5.8373519999999998E-2</v>
       </c>
-      <c r="AG3" s="15">
+      <c r="AG3" s="14">
         <v>1.7180919999999999E-2</v>
       </c>
-      <c r="AH3" s="15">
+      <c r="AH3" s="14">
         <v>1.6115540000000001E-4</v>
       </c>
-      <c r="AI3" s="15">
+      <c r="AI3" s="14">
         <v>9.9808380000000003E-5</v>
       </c>
-      <c r="AJ3" s="15">
+      <c r="AJ3" s="14">
         <v>0</v>
       </c>
       <c r="AK3" s="13">
@@ -27981,183 +27955,183 @@
       <c r="AM3" s="13">
         <v>8.9659699999999995E-2</v>
       </c>
-      <c r="AN3" s="15">
+      <c r="AN3" s="14">
         <v>1.9609229999999998E-2</v>
       </c>
       <c r="AO3" s="13">
         <v>0.3231696</v>
       </c>
-      <c r="AP3" s="15">
+      <c r="AP3" s="14">
         <v>2.881593E-3</v>
       </c>
-      <c r="AQ3" s="15">
+      <c r="AQ3" s="14">
         <v>4.0514479999999999E-11</v>
       </c>
-      <c r="AR3" s="15">
+      <c r="AR3" s="14">
         <v>1.7830880000000001E-10</v>
       </c>
       <c r="AS3" s="13">
         <v>9.4561439999999997E-2</v>
       </c>
-      <c r="AT3" s="15">
+      <c r="AT3" s="14">
         <v>1.7063460000000001E-5</v>
       </c>
       <c r="AU3" s="13">
         <v>0.40555020000000003</v>
       </c>
-      <c r="AV3" s="15">
+      <c r="AV3" s="14">
         <v>2.030853E-7</v>
       </c>
     </row>
-    <row r="4" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="25">
+    <row r="4" spans="1:48" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="24">
         <v>-0.24223610000000001</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="25">
         <v>0.9217379</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="24">
         <v>0.40936693000000002</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="25">
         <v>0.664726292</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="24">
         <v>-0.110974</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="25">
         <v>0.76591816339999996</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="25">
         <v>0.88182819999999995</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="25">
         <v>0.75385523109999997</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="24">
         <v>-0.1723452</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="24">
         <v>0.25339250000000002</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4" s="25">
         <v>0.71214127650000003</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="25">
         <v>0.87300889999999998</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="24">
         <v>0.4508394</v>
       </c>
-      <c r="O4" s="26">
+      <c r="O4" s="25">
         <v>0.55599401999999998</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="25">
         <v>0.85836699999999999</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="25">
         <v>0.72624294460000005</v>
       </c>
-      <c r="R4" s="26">
+      <c r="R4" s="25">
         <v>0.79220818159999995</v>
       </c>
-      <c r="S4" s="26">
+      <c r="S4" s="25">
         <v>0.93536059999999999</v>
       </c>
-      <c r="T4" s="26">
+      <c r="T4" s="25">
         <v>0.81527720000000004</v>
       </c>
-      <c r="U4" s="26">
+      <c r="U4" s="25">
         <v>0.68547760499999999</v>
       </c>
-      <c r="V4" s="25">
+      <c r="V4" s="24">
         <v>0.323577</v>
       </c>
-      <c r="W4" s="26">
+      <c r="W4" s="25">
         <v>0.72203184490000005</v>
       </c>
-      <c r="X4" s="25">
+      <c r="X4" s="24">
         <v>-0.23309830000000001</v>
       </c>
-      <c r="Y4" s="25">
+      <c r="Y4" s="24">
         <v>0.34921649999999999</v>
       </c>
-      <c r="Z4" s="25">
+      <c r="Z4" s="24">
         <v>0.29679050000000001</v>
       </c>
-      <c r="AA4" s="25">
+      <c r="AA4" s="24">
         <v>-7.9666180000000003E-2</v>
       </c>
-      <c r="AB4" s="26">
+      <c r="AB4" s="25">
         <v>0.88106390000000001</v>
       </c>
-      <c r="AC4" s="26">
+      <c r="AC4" s="25">
         <v>0.91557849999999996</v>
       </c>
-      <c r="AD4" s="25">
+      <c r="AD4" s="24">
         <v>0.31396930000000001</v>
       </c>
-      <c r="AE4" s="26">
+      <c r="AE4" s="25">
         <v>0.68224921500000002</v>
       </c>
-      <c r="AF4" s="25">
+      <c r="AF4" s="24">
         <v>0.44160702000000002</v>
       </c>
-      <c r="AG4" s="26">
+      <c r="AG4" s="25">
         <v>0.53928288000000002</v>
       </c>
-      <c r="AH4" s="26">
+      <c r="AH4" s="25">
         <v>0.75966947929999995</v>
       </c>
-      <c r="AI4" s="26">
+      <c r="AI4" s="25">
         <v>0.77428540000000001</v>
       </c>
-      <c r="AJ4" s="26">
+      <c r="AJ4" s="25">
         <v>1</v>
       </c>
-      <c r="AK4" s="25">
+      <c r="AK4" s="24">
         <v>0.2589205</v>
       </c>
-      <c r="AL4" s="25">
+      <c r="AL4" s="24">
         <v>9.1088769999999999E-2</v>
       </c>
-      <c r="AM4" s="25">
+      <c r="AM4" s="24">
         <v>0.40006740000000002</v>
       </c>
-      <c r="AN4" s="26">
+      <c r="AN4" s="25">
         <v>0.52993394000000005</v>
       </c>
-      <c r="AO4" s="25">
+      <c r="AO4" s="24">
         <v>-0.23959659999999999</v>
       </c>
-      <c r="AP4" s="26">
+      <c r="AP4" s="25">
         <v>0.64471568400000001</v>
       </c>
-      <c r="AQ4" s="26">
+      <c r="AQ4" s="25">
         <v>0.96306970000000003</v>
       </c>
-      <c r="AR4" s="26">
+      <c r="AR4" s="25">
         <v>0.95590960000000003</v>
       </c>
-      <c r="AS4" s="25">
+      <c r="AS4" s="24">
         <v>-0.39458208</v>
       </c>
-      <c r="AT4" s="26">
+      <c r="AT4" s="25">
         <v>0.8202277</v>
       </c>
-      <c r="AU4" s="25">
+      <c r="AU4" s="24">
         <v>0.20257900000000001</v>
       </c>
-      <c r="AV4" s="26">
+      <c r="AV4" s="25">
         <v>0.8966248</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -28299,2003 +28273,6 @@
       </c>
       <c r="AV5" s="2">
         <v>2.2075469999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31268072-E331-EC4B-84C4-F0AE4080B6BF}">
-  <dimension ref="A1:BB8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="16" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="54" width="11.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="14">
-        <v>2</v>
-      </c>
-      <c r="C2" s="14">
-        <v>2</v>
-      </c>
-      <c r="D2" s="14">
-        <v>2</v>
-      </c>
-      <c r="E2" s="14">
-        <v>2</v>
-      </c>
-      <c r="F2" s="14">
-        <v>2</v>
-      </c>
-      <c r="G2" s="14">
-        <v>2</v>
-      </c>
-      <c r="H2" s="14">
-        <v>2</v>
-      </c>
-      <c r="I2" s="14">
-        <v>2</v>
-      </c>
-      <c r="J2" s="14">
-        <v>2</v>
-      </c>
-      <c r="K2" s="14">
-        <v>2</v>
-      </c>
-      <c r="L2" s="14">
-        <v>2</v>
-      </c>
-      <c r="M2" s="14">
-        <v>2</v>
-      </c>
-      <c r="N2" s="14">
-        <v>2</v>
-      </c>
-      <c r="O2" s="14">
-        <v>2</v>
-      </c>
-      <c r="P2" s="14">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="14">
-        <v>2</v>
-      </c>
-      <c r="R2" s="14">
-        <v>2</v>
-      </c>
-      <c r="S2" s="14">
-        <v>2</v>
-      </c>
-      <c r="T2" s="14">
-        <v>2</v>
-      </c>
-      <c r="U2" s="14">
-        <v>2</v>
-      </c>
-      <c r="V2" s="14">
-        <v>2</v>
-      </c>
-      <c r="W2" s="14">
-        <v>2</v>
-      </c>
-      <c r="X2" s="14">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="14">
-        <v>2</v>
-      </c>
-      <c r="Z2" s="14">
-        <v>2</v>
-      </c>
-      <c r="AA2" s="14">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC2" s="14">
-        <v>2</v>
-      </c>
-      <c r="AD2" s="14">
-        <v>2</v>
-      </c>
-      <c r="AE2" s="14">
-        <v>2</v>
-      </c>
-      <c r="AF2" s="14">
-        <v>2</v>
-      </c>
-      <c r="AG2" s="14">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="14">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="14">
-        <v>2</v>
-      </c>
-      <c r="AJ2" s="14">
-        <v>2</v>
-      </c>
-      <c r="AK2" s="14">
-        <v>2</v>
-      </c>
-      <c r="AL2" s="14">
-        <v>2</v>
-      </c>
-      <c r="AM2" s="14">
-        <v>2</v>
-      </c>
-      <c r="AN2" s="14">
-        <v>2</v>
-      </c>
-      <c r="AO2" s="14">
-        <v>2</v>
-      </c>
-      <c r="AP2" s="14">
-        <v>2</v>
-      </c>
-      <c r="AQ2" s="14">
-        <v>2</v>
-      </c>
-      <c r="AR2" s="14">
-        <v>2</v>
-      </c>
-      <c r="AS2" s="14">
-        <v>2</v>
-      </c>
-      <c r="AT2" s="14">
-        <v>2</v>
-      </c>
-      <c r="AU2" s="14">
-        <v>2</v>
-      </c>
-      <c r="AV2" s="14">
-        <v>2</v>
-      </c>
-      <c r="AW2" s="14">
-        <v>2</v>
-      </c>
-      <c r="AX2" s="14">
-        <v>2</v>
-      </c>
-      <c r="AY2" s="14">
-        <v>2</v>
-      </c>
-      <c r="AZ2" s="14">
-        <v>2</v>
-      </c>
-      <c r="BA2" s="14">
-        <v>2</v>
-      </c>
-      <c r="BB2" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="13">
-        <v>1.6172890000000001E-7</v>
-      </c>
-      <c r="C3" s="13">
-        <v>2.8258679999999998E-4</v>
-      </c>
-      <c r="D3" s="13">
-        <v>2.337015E-3</v>
-      </c>
-      <c r="E3" s="13">
-        <v>8.6348419999999995E-2</v>
-      </c>
-      <c r="F3" s="13">
-        <v>2.7543956000000001</v>
-      </c>
-      <c r="G3" s="13">
-        <v>1044.2692747000001</v>
-      </c>
-      <c r="H3" s="13">
-        <v>2.1747989999999998E-3</v>
-      </c>
-      <c r="I3" s="13">
-        <v>5.6365379999999999E-5</v>
-      </c>
-      <c r="J3" s="13">
-        <v>6.4033679999999996E-2</v>
-      </c>
-      <c r="K3" s="13">
-        <v>8.3889979999999999E-3</v>
-      </c>
-      <c r="L3" s="13">
-        <v>0.7901918</v>
-      </c>
-      <c r="M3" s="13">
-        <v>0.22027421999999999</v>
-      </c>
-      <c r="N3" s="13">
-        <v>1.3765834400000001</v>
-      </c>
-      <c r="O3" s="13">
-        <v>6.5485880000000002E-3</v>
-      </c>
-      <c r="P3" s="13">
-        <v>0.51511180000000001</v>
-      </c>
-      <c r="Q3" s="13">
-        <v>540146</v>
-      </c>
-      <c r="R3" s="13">
-        <v>2.236616E-2</v>
-      </c>
-      <c r="S3" s="13">
-        <v>3.2774799999999999E-4</v>
-      </c>
-      <c r="T3" s="13">
-        <v>1.4555239999999999E-4</v>
-      </c>
-      <c r="U3" s="13">
-        <v>6.0026540000000003E-4</v>
-      </c>
-      <c r="V3" s="13">
-        <v>1.8772890000000001E-7</v>
-      </c>
-      <c r="W3" s="13">
-        <v>0.17252039999999999</v>
-      </c>
-      <c r="X3" s="13">
-        <v>0.1982217</v>
-      </c>
-      <c r="Y3" s="13">
-        <v>0.20920150000000001</v>
-      </c>
-      <c r="Z3" s="13">
-        <v>6.8195679999999998E-3</v>
-      </c>
-      <c r="AA3" s="13">
-        <v>8668.8359999999993</v>
-      </c>
-      <c r="AB3" s="13">
-        <v>0.31528200000000001</v>
-      </c>
-      <c r="AC3" s="13">
-        <v>1.932234E-7</v>
-      </c>
-      <c r="AD3" s="13">
-        <v>1.09103E-3</v>
-      </c>
-      <c r="AE3" s="13">
-        <v>3.5646546699999999</v>
-      </c>
-      <c r="AF3" s="13">
-        <v>9.3898430000000001E-3</v>
-      </c>
-      <c r="AG3" s="13">
-        <v>6.8861629999999993E-2</v>
-      </c>
-      <c r="AH3" s="13">
-        <v>8.7179489999999993E-8</v>
-      </c>
-      <c r="AI3" s="13">
-        <v>2.153846E-7</v>
-      </c>
-      <c r="AJ3" s="13">
-        <v>20.5332325</v>
-      </c>
-      <c r="AK3" s="13">
-        <v>9.2032969999999995E-7</v>
-      </c>
-      <c r="AL3" s="13">
-        <v>2.2786809999999998E-3</v>
-      </c>
-      <c r="AM3" s="13">
-        <v>1.460762E-2</v>
-      </c>
-      <c r="AN3" s="13">
-        <v>9.8366300000000007E-3</v>
-      </c>
-      <c r="AO3" s="13">
-        <v>1.158818E-2</v>
-      </c>
-      <c r="AP3" s="13">
-        <v>7.4194139999999998E-5</v>
-      </c>
-      <c r="AQ3" s="13">
-        <v>13.310681799999999</v>
-      </c>
-      <c r="AR3" s="13">
-        <v>4.3058609999999998E-7</v>
-      </c>
-      <c r="AS3" s="13">
-        <v>5.8608059999999996E-6</v>
-      </c>
-      <c r="AT3" s="13">
-        <v>1.728956E-3</v>
-      </c>
-      <c r="AU3" s="13">
-        <v>4.6703300000000001E-8</v>
-      </c>
-      <c r="AV3" s="13">
-        <v>1.6954400000000002E-5</v>
-      </c>
-      <c r="AW3" s="13">
-        <v>1.609138E-3</v>
-      </c>
-      <c r="AX3" s="13">
-        <v>4.6016903999999998</v>
-      </c>
-      <c r="AY3" s="13">
-        <v>3.0153850000000002E-4</v>
-      </c>
-      <c r="AZ3" s="13">
-        <v>0.37051979000000002</v>
-      </c>
-      <c r="BA3" s="13">
-        <v>330.42529999999999</v>
-      </c>
-      <c r="BB3" s="13">
-        <v>0.31250675999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="13">
-        <v>3.2345790000000002E-7</v>
-      </c>
-      <c r="C4" s="13">
-        <v>5.6517359999999997E-4</v>
-      </c>
-      <c r="D4" s="13">
-        <v>4.6740289999999997E-3</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0.17269685000000001</v>
-      </c>
-      <c r="F4" s="13">
-        <v>5.5087912000000001</v>
-      </c>
-      <c r="G4" s="13">
-        <v>2088.5385495</v>
-      </c>
-      <c r="H4" s="13">
-        <v>4.3495970000000002E-3</v>
-      </c>
-      <c r="I4" s="13">
-        <v>1.127308E-4</v>
-      </c>
-      <c r="J4" s="13">
-        <v>0.12806735999999999</v>
-      </c>
-      <c r="K4" s="13">
-        <v>1.6777996E-2</v>
-      </c>
-      <c r="L4" s="13">
-        <v>1.5803836</v>
-      </c>
-      <c r="M4" s="13">
-        <v>0.44054844999999998</v>
-      </c>
-      <c r="N4" s="13">
-        <v>2.7531668900000001</v>
-      </c>
-      <c r="O4" s="13">
-        <v>1.3097175000000001E-2</v>
-      </c>
-      <c r="P4" s="13">
-        <v>1.0302236</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>1080292</v>
-      </c>
-      <c r="R4" s="13">
-        <v>4.4732319999999999E-2</v>
-      </c>
-      <c r="S4" s="13">
-        <v>6.5549599999999999E-4</v>
-      </c>
-      <c r="T4" s="13">
-        <v>2.9110479999999998E-4</v>
-      </c>
-      <c r="U4" s="13">
-        <v>1.2005308000000001E-3</v>
-      </c>
-      <c r="V4" s="13">
-        <v>3.7545790000000001E-7</v>
-      </c>
-      <c r="W4" s="13">
-        <v>0.34504089999999998</v>
-      </c>
-      <c r="X4" s="13">
-        <v>0.3964434</v>
-      </c>
-      <c r="Y4" s="13">
-        <v>0.41840290000000002</v>
-      </c>
-      <c r="Z4" s="13">
-        <v>1.3639136E-2</v>
-      </c>
-      <c r="AA4" s="13">
-        <v>17337.669999999998</v>
-      </c>
-      <c r="AB4" s="13">
-        <v>0.63056409999999996</v>
-      </c>
-      <c r="AC4" s="13">
-        <v>3.864469E-7</v>
-      </c>
-      <c r="AD4" s="13">
-        <v>2.18206E-3</v>
-      </c>
-      <c r="AE4" s="13">
-        <v>7.1293093399999998</v>
-      </c>
-      <c r="AF4" s="13">
-        <v>1.8779686E-2</v>
-      </c>
-      <c r="AG4" s="13">
-        <v>0.13772325999999999</v>
-      </c>
-      <c r="AH4" s="13">
-        <v>1.7435900000000001E-7</v>
-      </c>
-      <c r="AI4" s="13">
-        <v>4.307692E-7</v>
-      </c>
-      <c r="AJ4" s="13">
-        <v>41.066465100000002</v>
-      </c>
-      <c r="AK4" s="13">
-        <v>1.8406589999999999E-6</v>
-      </c>
-      <c r="AL4" s="13">
-        <v>4.557363E-3</v>
-      </c>
-      <c r="AM4" s="13">
-        <v>2.921524E-2</v>
-      </c>
-      <c r="AN4" s="13">
-        <v>1.9673260000000001E-2</v>
-      </c>
-      <c r="AO4" s="13">
-        <v>2.3176349999999998E-2</v>
-      </c>
-      <c r="AP4" s="13">
-        <v>1.483883E-4</v>
-      </c>
-      <c r="AQ4" s="13">
-        <v>26.621363599999999</v>
-      </c>
-      <c r="AR4" s="13">
-        <v>8.6117219999999996E-7</v>
-      </c>
-      <c r="AS4" s="13">
-        <v>1.172161E-5</v>
-      </c>
-      <c r="AT4" s="13">
-        <v>3.4579120000000001E-3</v>
-      </c>
-      <c r="AU4" s="13">
-        <v>9.3406590000000006E-8</v>
-      </c>
-      <c r="AV4" s="13">
-        <v>3.3908790000000002E-5</v>
-      </c>
-      <c r="AW4" s="13">
-        <v>3.2182769999999999E-3</v>
-      </c>
-      <c r="AX4" s="13">
-        <v>9.2033807999999997</v>
-      </c>
-      <c r="AY4" s="13">
-        <v>6.0307690000000001E-4</v>
-      </c>
-      <c r="AZ4" s="13">
-        <v>0.74103958000000003</v>
-      </c>
-      <c r="BA4" s="13">
-        <v>660.85059999999999</v>
-      </c>
-      <c r="BB4" s="13">
-        <v>0.62501351999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="13">
-        <v>0.44348860000000001</v>
-      </c>
-      <c r="C5" s="13">
-        <v>0.88778028860000002</v>
-      </c>
-      <c r="D5" s="13">
-        <v>1.220192951</v>
-      </c>
-      <c r="E5" s="13">
-        <v>2.7876540300000001</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0.30380449999999998</v>
-      </c>
-      <c r="G5" s="13">
-        <v>1.4770760000000001</v>
-      </c>
-      <c r="H5" s="13">
-        <v>2.635480185</v>
-      </c>
-      <c r="I5" s="13">
-        <v>1.6245890000000001</v>
-      </c>
-      <c r="J5" s="13">
-        <v>2.02267778</v>
-      </c>
-      <c r="K5" s="13">
-        <v>1.3840117860000001</v>
-      </c>
-      <c r="L5" s="13">
-        <v>1.381202</v>
-      </c>
-      <c r="M5" s="13">
-        <v>2.7482023799999999</v>
-      </c>
-      <c r="N5" s="13">
-        <v>2.7584447600000002</v>
-      </c>
-      <c r="O5" s="13">
-        <v>2.12268597</v>
-      </c>
-      <c r="P5" s="13">
-        <v>0.59775540000000005</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>2.1559699999999999</v>
-      </c>
-      <c r="R5" s="13">
-        <v>2.0526200999999999</v>
-      </c>
-      <c r="S5" s="13">
-        <v>2.4120109809999999</v>
-      </c>
-      <c r="T5" s="13">
-        <v>3.2209897744</v>
-      </c>
-      <c r="U5" s="13">
-        <v>1.6873788183</v>
-      </c>
-      <c r="V5" s="13">
-        <v>0.1094955</v>
-      </c>
-      <c r="W5" s="13">
-        <v>27.538679999999999</v>
-      </c>
-      <c r="X5" s="13">
-        <v>1.4462904999999999</v>
-      </c>
-      <c r="Y5" s="13">
-        <v>0.92125210000000002</v>
-      </c>
-      <c r="Z5" s="13">
-        <v>5.1408470470000003</v>
-      </c>
-      <c r="AA5" s="13">
-        <v>1.925157</v>
-      </c>
-      <c r="AB5" s="13">
-        <v>1.0298183000000001</v>
-      </c>
-      <c r="AC5" s="13">
-        <v>0.53342699999999998</v>
-      </c>
-      <c r="AD5" s="13">
-        <v>2.18247934</v>
-      </c>
-      <c r="AE5" s="13">
-        <v>2.2096206</v>
-      </c>
-      <c r="AF5" s="13">
-        <v>8.2240718360000002</v>
-      </c>
-      <c r="AG5" s="13">
-        <v>0.35536775999999998</v>
-      </c>
-      <c r="AH5" s="13">
-        <v>1.390909</v>
-      </c>
-      <c r="AI5" s="13">
-        <v>0.44955400000000001</v>
-      </c>
-      <c r="AJ5" s="13">
-        <v>3.1624525000000001</v>
-      </c>
-      <c r="AK5" s="13">
-        <v>3.6403270000000001</v>
-      </c>
-      <c r="AL5" s="13">
-        <v>11.91724</v>
-      </c>
-      <c r="AM5" s="13">
-        <v>2.0465068</v>
-      </c>
-      <c r="AN5" s="13">
-        <v>3.47887294</v>
-      </c>
-      <c r="AO5" s="13">
-        <v>0.58478333999999998</v>
-      </c>
-      <c r="AP5" s="13">
-        <v>0.73604979999999998</v>
-      </c>
-      <c r="AQ5" s="13">
-        <v>1.3117426000000001</v>
-      </c>
-      <c r="AR5" s="13">
-        <v>1.7870779999999999</v>
-      </c>
-      <c r="AS5" s="13">
-        <v>1.711738</v>
-      </c>
-      <c r="AT5" s="13">
-        <v>1.5751324280000001</v>
-      </c>
-      <c r="AU5" s="13">
-        <v>0.3095773</v>
-      </c>
-      <c r="AV5" s="13">
-        <v>7.2095709999999993E-2</v>
-      </c>
-      <c r="AW5" s="13">
-        <v>1.467146415</v>
-      </c>
-      <c r="AX5" s="13">
-        <v>2.1418398999999999</v>
-      </c>
-      <c r="AY5" s="13">
-        <v>0.12742340029999999</v>
-      </c>
-      <c r="AZ5" s="13">
-        <v>2.7010404100000001</v>
-      </c>
-      <c r="BA5" s="13">
-        <v>8.1293290000000002</v>
-      </c>
-      <c r="BB5" s="13">
-        <v>2.8498625299999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="13">
-        <v>0.64638510000000005</v>
-      </c>
-      <c r="C6" s="13">
-        <v>0.4232428325</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0.31093784699999999</v>
-      </c>
-      <c r="E6" s="13">
-        <v>7.9326019999999997E-2</v>
-      </c>
-      <c r="F6" s="13">
-        <v>0.74049489999999996</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0.24617330000000001</v>
-      </c>
-      <c r="H6" s="13">
-        <v>9.0043071000000002E-2</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0.21566389999999999</v>
-      </c>
-      <c r="J6" s="13">
-        <v>0.15186448</v>
-      </c>
-      <c r="K6" s="13">
-        <v>0.267784727</v>
-      </c>
-      <c r="L6" s="13">
-        <v>0.26846809999999999</v>
-      </c>
-      <c r="M6" s="13">
-        <v>8.1966059999999993E-2</v>
-      </c>
-      <c r="N6" s="13">
-        <v>8.1271709999999997E-2</v>
-      </c>
-      <c r="O6" s="13">
-        <v>0.13925278299999999</v>
-      </c>
-      <c r="P6" s="13">
-        <v>0.55716169999999998</v>
-      </c>
-      <c r="Q6" s="13">
-        <v>0.13530880000000001</v>
-      </c>
-      <c r="R6" s="13">
-        <v>0.14796458000000001</v>
-      </c>
-      <c r="S6" s="13">
-        <v>0.108696969</v>
-      </c>
-      <c r="T6" s="13">
-        <v>5.5650507299999999E-2</v>
-      </c>
-      <c r="U6" s="13">
-        <v>0.2039331033</v>
-      </c>
-      <c r="V6" s="13">
-        <v>0.89668210000000004</v>
-      </c>
-      <c r="W6" s="15">
-        <v>3.029668E-7</v>
-      </c>
-      <c r="X6" s="13">
-        <v>0.25310729999999998</v>
-      </c>
-      <c r="Y6" s="13">
-        <v>0.41017179999999998</v>
-      </c>
-      <c r="Z6" s="15">
-        <v>1.2829794E-2</v>
-      </c>
-      <c r="AA6" s="13">
-        <v>0.1653509</v>
-      </c>
-      <c r="AB6" s="13">
-        <v>0.37067509999999998</v>
-      </c>
-      <c r="AC6" s="13">
-        <v>0.59264609999999995</v>
-      </c>
-      <c r="AD6" s="13">
-        <v>0.13225348000000001</v>
-      </c>
-      <c r="AE6" s="13">
-        <v>0.12920192</v>
-      </c>
-      <c r="AF6" s="15">
-        <v>1.624798E-3</v>
-      </c>
-      <c r="AG6" s="13">
-        <v>0.70414498999999997</v>
-      </c>
-      <c r="AH6" s="13">
-        <v>0.26611509999999999</v>
-      </c>
-      <c r="AI6" s="13">
-        <v>0.64260119999999998</v>
-      </c>
-      <c r="AJ6" s="13">
-        <v>5.83486E-2</v>
-      </c>
-      <c r="AK6" s="15">
-        <v>3.9833439999999998E-2</v>
-      </c>
-      <c r="AL6" s="15">
-        <v>1.9510679999999999E-4</v>
-      </c>
-      <c r="AM6" s="13">
-        <v>0.14875199</v>
-      </c>
-      <c r="AN6" s="15">
-        <v>4.526227E-2</v>
-      </c>
-      <c r="AO6" s="13">
-        <v>0.56412918000000001</v>
-      </c>
-      <c r="AP6" s="13">
-        <v>0.48836849999999998</v>
-      </c>
-      <c r="AQ6" s="13">
-        <v>0.28597149999999999</v>
-      </c>
-      <c r="AR6" s="13">
-        <v>0.18669189999999999</v>
-      </c>
-      <c r="AS6" s="13">
-        <v>0.1995682</v>
-      </c>
-      <c r="AT6" s="13">
-        <v>0.22541382099999999</v>
-      </c>
-      <c r="AU6" s="13">
-        <v>0.73632690000000001</v>
-      </c>
-      <c r="AV6" s="13">
-        <v>0.93062029999999996</v>
-      </c>
-      <c r="AW6" s="13">
-        <v>0.24838723800000001</v>
-      </c>
-      <c r="AX6" s="13">
-        <v>0.13696829999999999</v>
-      </c>
-      <c r="AY6" s="13">
-        <v>0.88088711180000001</v>
-      </c>
-      <c r="AZ6" s="13">
-        <v>8.5246520000000006E-2</v>
-      </c>
-      <c r="BA6" s="15">
-        <v>1.7235530000000001E-3</v>
-      </c>
-      <c r="BB6" s="13">
-        <v>7.5346910000000003E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="13">
-        <v>0.54208920000000005</v>
-      </c>
-      <c r="C7" s="13">
-        <v>3.1171964699999999E-2</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0.69800378699999999</v>
-      </c>
-      <c r="E7" s="13">
-        <v>2.41412337</v>
-      </c>
-      <c r="F7" s="13">
-        <v>0.23948820000000001</v>
-      </c>
-      <c r="G7" s="13">
-        <v>1.6197618</v>
-      </c>
-      <c r="H7" s="13">
-        <v>1.0133694660000001</v>
-      </c>
-      <c r="I7" s="13">
-        <v>1.305029</v>
-      </c>
-      <c r="J7" s="13">
-        <v>1.8989979699999999</v>
-      </c>
-      <c r="K7" s="13">
-        <v>1.3623487750000001</v>
-      </c>
-      <c r="L7" s="13">
-        <v>0.69237959999999998</v>
-      </c>
-      <c r="M7" s="13">
-        <v>2.9721365</v>
-      </c>
-      <c r="N7" s="13">
-        <v>0.37417035999999998</v>
-      </c>
-      <c r="O7" s="13">
-        <v>1.891175681</v>
-      </c>
-      <c r="P7" s="13">
-        <v>0.64261290000000004</v>
-      </c>
-      <c r="Q7" s="13">
-        <v>0.72508150000000005</v>
-      </c>
-      <c r="R7" s="13">
-        <v>0.72087836000000005</v>
-      </c>
-      <c r="S7" s="13">
-        <v>0.82031182899999999</v>
-      </c>
-      <c r="T7" s="13">
-        <v>1.3889070288000001</v>
-      </c>
-      <c r="U7" s="13">
-        <v>1.2030780241000001</v>
-      </c>
-      <c r="V7" s="13">
-        <v>0.1094955</v>
-      </c>
-      <c r="W7" s="13">
-        <v>4.2350370000000002</v>
-      </c>
-      <c r="X7" s="13">
-        <v>0.79965909999999996</v>
-      </c>
-      <c r="Y7" s="13">
-        <v>0.99751590000000001</v>
-      </c>
-      <c r="Z7" s="13">
-        <v>0.71731307099999997</v>
-      </c>
-      <c r="AA7" s="13">
-        <v>1.1154500000000001</v>
-      </c>
-      <c r="AB7" s="13">
-        <v>0.13694700000000001</v>
-      </c>
-      <c r="AC7" s="13">
-        <v>0.53342699999999998</v>
-      </c>
-      <c r="AD7" s="13">
-        <v>1.3499502699999999</v>
-      </c>
-      <c r="AE7" s="13">
-        <v>2.6620067500000002</v>
-      </c>
-      <c r="AF7" s="13">
-        <v>1.1452650360000001</v>
-      </c>
-      <c r="AG7" s="13">
-        <v>0.75843974999999997</v>
-      </c>
-      <c r="AH7" s="13">
-        <v>1.390909</v>
-      </c>
-      <c r="AI7" s="13">
-        <v>0.52433039999999997</v>
-      </c>
-      <c r="AJ7" s="13">
-        <v>2.1712454000000001</v>
-      </c>
-      <c r="AK7" s="13">
-        <v>2.9151600000000002</v>
-      </c>
-      <c r="AL7" s="13">
-        <v>4.4612800000000004</v>
-      </c>
-      <c r="AM7" s="13">
-        <v>2.7353860800000001</v>
-      </c>
-      <c r="AN7" s="13">
-        <v>0.72214102999999996</v>
-      </c>
-      <c r="AO7" s="13">
-        <v>0.49722072</v>
-      </c>
-      <c r="AP7" s="13">
-        <v>0.25548690000000002</v>
-      </c>
-      <c r="AQ7" s="13">
-        <v>0.14529020000000001</v>
-      </c>
-      <c r="AR7" s="13">
-        <v>0.95701009999999997</v>
-      </c>
-      <c r="AS7" s="13">
-        <v>1.711738</v>
-      </c>
-      <c r="AT7" s="13">
-        <v>0.27605215300000002</v>
-      </c>
-      <c r="AU7" s="13">
-        <v>0.3095773</v>
-      </c>
-      <c r="AV7" s="13">
-        <v>0.3503812</v>
-      </c>
-      <c r="AW7" s="13">
-        <v>0.43080093200000003</v>
-      </c>
-      <c r="AX7" s="13">
-        <v>0.99530929999999995</v>
-      </c>
-      <c r="AY7" s="13">
-        <v>0.2066312361</v>
-      </c>
-      <c r="AZ7" s="13">
-        <v>1.4438550800000001</v>
-      </c>
-      <c r="BA7" s="13">
-        <v>0.2259012</v>
-      </c>
-      <c r="BB7" s="13">
-        <v>1.1838692799999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="13">
-        <v>0.58772959999999996</v>
-      </c>
-      <c r="C8" s="13">
-        <v>0.96934370290000005</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0.50633446599999998</v>
-      </c>
-      <c r="E8" s="13">
-        <v>0.10850235</v>
-      </c>
-      <c r="F8" s="13">
-        <v>0.78868459999999996</v>
-      </c>
-      <c r="G8" s="13">
-        <v>0.21659529999999999</v>
-      </c>
-      <c r="H8" s="13">
-        <v>0.37638688599999998</v>
-      </c>
-      <c r="I8" s="13">
-        <v>0.28772700000000001</v>
-      </c>
-      <c r="J8" s="13">
-        <v>0.16918336</v>
-      </c>
-      <c r="K8" s="13">
-        <v>0.27310227500000001</v>
-      </c>
-      <c r="L8" s="13">
-        <v>0.50905</v>
-      </c>
-      <c r="M8" s="13">
-        <v>6.8136810000000006E-2</v>
-      </c>
-      <c r="N8" s="13">
-        <v>0.69137084999999998</v>
-      </c>
-      <c r="O8" s="13">
-        <v>0.170347842</v>
-      </c>
-      <c r="P8" s="13">
-        <v>0.53377169999999996</v>
-      </c>
-      <c r="Q8" s="13">
-        <v>0.49347659999999999</v>
-      </c>
-      <c r="R8" s="13">
-        <v>0.49544926</v>
-      </c>
-      <c r="S8" s="13">
-        <v>0.450969803</v>
-      </c>
-      <c r="T8" s="13">
-        <v>0.26659857949999999</v>
-      </c>
-      <c r="U8" s="13">
-        <v>0.31585978780000001</v>
-      </c>
-      <c r="V8" s="13">
-        <v>0.89668210000000004</v>
-      </c>
-      <c r="W8" s="15">
-        <v>2.5134630000000002E-2</v>
-      </c>
-      <c r="X8" s="13">
-        <v>0.45984249999999999</v>
-      </c>
-      <c r="Y8" s="13">
-        <v>0.38198149999999997</v>
-      </c>
-      <c r="Z8" s="13">
-        <v>0.49712918699999997</v>
-      </c>
-      <c r="AA8" s="13">
-        <v>0.34240579999999998</v>
-      </c>
-      <c r="AB8" s="13">
-        <v>0.87261829999999996</v>
-      </c>
-      <c r="AC8" s="13">
-        <v>0.59264609999999995</v>
-      </c>
-      <c r="AD8" s="13">
-        <v>0.27619663</v>
-      </c>
-      <c r="AE8" s="13">
-        <v>8.8068289999999994E-2</v>
-      </c>
-      <c r="AF8" s="13">
-        <v>0.33311423699999998</v>
-      </c>
-      <c r="AG8" s="13">
-        <v>0.47811658000000001</v>
-      </c>
-      <c r="AH8" s="13">
-        <v>0.26611509999999999</v>
-      </c>
-      <c r="AI8" s="13">
-        <v>0.59785670000000002</v>
-      </c>
-      <c r="AJ8" s="13">
-        <v>0.13353909999999999</v>
-      </c>
-      <c r="AK8" s="13">
-        <v>7.1399779999999996E-2</v>
-      </c>
-      <c r="AL8" s="15">
-        <v>2.1181289999999998E-2</v>
-      </c>
-      <c r="AM8" s="13">
-        <v>8.2843890000000003E-2</v>
-      </c>
-      <c r="AN8" s="13">
-        <v>0.49485575999999998</v>
-      </c>
-      <c r="AO8" s="13">
-        <v>0.61367923000000002</v>
-      </c>
-      <c r="AP8" s="13">
-        <v>0.77639069999999999</v>
-      </c>
-      <c r="AQ8" s="13">
-        <v>0.86544290000000001</v>
-      </c>
-      <c r="AR8" s="13">
-        <v>0.39668550000000002</v>
-      </c>
-      <c r="AS8" s="13">
-        <v>0.1995682</v>
-      </c>
-      <c r="AT8" s="13">
-        <v>0.76088910899999995</v>
-      </c>
-      <c r="AU8" s="13">
-        <v>0.73632690000000001</v>
-      </c>
-      <c r="AV8" s="13">
-        <v>0.70757519999999996</v>
-      </c>
-      <c r="AW8" s="13">
-        <v>0.65437803000000005</v>
-      </c>
-      <c r="AX8" s="13">
-        <v>0.38276729999999998</v>
-      </c>
-      <c r="AY8" s="13">
-        <v>0.81459368300000001</v>
-      </c>
-      <c r="AZ8" s="13">
-        <v>0.25366475999999999</v>
-      </c>
-      <c r="BA8" s="13">
-        <v>0.79928960000000004</v>
-      </c>
-      <c r="BB8" s="13">
-        <v>0.32148373000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B87901A-E7F1-E849-AECF-DA0FBC1B8A18}">
-  <dimension ref="A1:BB4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="12">
-        <v>-3.2646889999999998E-2</v>
-      </c>
-      <c r="C2" s="12">
-        <v>-3.5711846999999998E-2</v>
-      </c>
-      <c r="D2" s="12">
-        <v>2.173663E-2</v>
-      </c>
-      <c r="E2" s="12">
-        <v>5.5074130000000001E-3</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.7875470000000001E-2</v>
-      </c>
-      <c r="G2" s="12">
-        <v>-1.088834E-2</v>
-      </c>
-      <c r="H2" s="12">
-        <v>0.13567462</v>
-      </c>
-      <c r="I2" s="12">
-        <v>0.15395310000000001</v>
-      </c>
-      <c r="J2" s="12">
-        <v>4.4817080000000002E-2</v>
-      </c>
-      <c r="K2" s="12">
-        <v>7.6420199999999994E-2</v>
-      </c>
-      <c r="L2" s="12">
-        <v>3.422799E-2</v>
-      </c>
-      <c r="M2" s="12">
-        <v>0.10281492</v>
-      </c>
-      <c r="N2" s="12">
-        <v>0.17020819000000001</v>
-      </c>
-      <c r="O2" s="12">
-        <v>-3.3676089999999999E-2</v>
-      </c>
-      <c r="P2" s="12">
-        <v>2.400304E-2</v>
-      </c>
-      <c r="Q2" s="12">
-        <v>9.2667659999999999E-2</v>
-      </c>
-      <c r="R2" s="12">
-        <v>8.5499169999999999E-2</v>
-      </c>
-      <c r="S2" s="12">
-        <v>0.15439733</v>
-      </c>
-      <c r="T2" s="12">
-        <v>0.19553077799999999</v>
-      </c>
-      <c r="U2" s="12">
-        <v>1.7026610000000001E-2</v>
-      </c>
-      <c r="V2" s="12">
-        <v>-3.4581349999999997E-2</v>
-      </c>
-      <c r="W2" s="12">
-        <v>0.30773822369999998</v>
-      </c>
-      <c r="X2" s="12">
-        <v>3.4810210000000001E-2</v>
-      </c>
-      <c r="Y2" s="12">
-        <v>-2.074954E-2</v>
-      </c>
-      <c r="Z2" s="12">
-        <v>0.22962585399999999</v>
-      </c>
-      <c r="AA2" s="12">
-        <v>9.5846270000000001E-3</v>
-      </c>
-      <c r="AB2" s="12">
-        <v>-1.3085980000000001E-2</v>
-      </c>
-      <c r="AC2" s="12">
-        <v>-2.6967850000000002E-2</v>
-      </c>
-      <c r="AD2" s="12">
-        <v>0.14596376999999999</v>
-      </c>
-      <c r="AE2" s="12">
-        <v>0.12071717999999999</v>
-      </c>
-      <c r="AF2" s="12">
-        <v>0.19647968399999999</v>
-      </c>
-      <c r="AG2" s="12">
-        <v>7.9176670000000005E-2</v>
-      </c>
-      <c r="AH2" s="12">
-        <v>7.0266690000000007E-2</v>
-      </c>
-      <c r="AI2" s="12">
-        <v>-2.7752659999999998E-2</v>
-      </c>
-      <c r="AJ2" s="12">
-        <v>5.3117560000000001E-2</v>
-      </c>
-      <c r="AK2" s="12">
-        <v>-2.082063E-2</v>
-      </c>
-      <c r="AL2" s="12">
-        <v>0.1787434</v>
-      </c>
-      <c r="AM2" s="12">
-        <v>0.26096575700000002</v>
-      </c>
-      <c r="AN2" s="12">
-        <v>7.7500089999999994E-2</v>
-      </c>
-      <c r="AO2" s="12">
-        <v>1.609491E-2</v>
-      </c>
-      <c r="AP2" s="12">
-        <v>3.9815000000000003E-2</v>
-      </c>
-      <c r="AQ2" s="12">
-        <v>-3.1066099999999999E-2</v>
-      </c>
-      <c r="AR2" s="12">
-        <v>1.967756E-2</v>
-      </c>
-      <c r="AS2" s="12">
-        <v>0.119725</v>
-      </c>
-      <c r="AT2" s="12">
-        <v>-2.757573E-2</v>
-      </c>
-      <c r="AU2" s="12">
-        <v>-2.6343200000000001E-2</v>
-      </c>
-      <c r="AV2" s="12">
-        <v>-2.3445460000000001E-2</v>
-      </c>
-      <c r="AW2" s="12">
-        <v>7.3738609999999996E-2</v>
-      </c>
-      <c r="AX2" s="12">
-        <v>0.14114992000000001</v>
-      </c>
-      <c r="AY2" s="12">
-        <v>-2.1707069999999998E-2</v>
-      </c>
-      <c r="AZ2" s="12">
-        <v>7.923202E-2</v>
-      </c>
-      <c r="BA2" s="12">
-        <v>2.958013E-2</v>
-      </c>
-      <c r="BB2" s="12">
-        <v>0.1620586</v>
-      </c>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="12">
-        <v>0.28839537999999998</v>
-      </c>
-      <c r="C3" s="12">
-        <v>8.1197839999999997E-3</v>
-      </c>
-      <c r="D3" s="12">
-        <v>1.2823294199999999</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1.077311218</v>
-      </c>
-      <c r="F3" s="12">
-        <v>-1.2360516800000001</v>
-      </c>
-      <c r="G3" s="12">
-        <v>-0.82924008999999999</v>
-      </c>
-      <c r="H3" s="12">
-        <v>2.35630622</v>
-      </c>
-      <c r="I3" s="12">
-        <v>2.5054063000000002</v>
-      </c>
-      <c r="J3" s="12">
-        <v>-1.5364494200000001</v>
-      </c>
-      <c r="K3" s="12">
-        <v>-1.8437897299999999</v>
-      </c>
-      <c r="L3" s="12">
-        <v>1.42400529</v>
-      </c>
-      <c r="M3" s="12">
-        <v>2.0792593799999999</v>
-      </c>
-      <c r="N3" s="12">
-        <v>2.6360055400000002</v>
-      </c>
-      <c r="O3" s="12">
-        <v>0.23496876999999999</v>
-      </c>
-      <c r="P3" s="12">
-        <v>1.30889546</v>
-      </c>
-      <c r="Q3" s="12">
-        <v>1.9904340599999999</v>
-      </c>
-      <c r="R3" s="12">
-        <v>1.92647054</v>
-      </c>
-      <c r="S3" s="12">
-        <v>2.50899714</v>
-      </c>
-      <c r="T3" s="12">
-        <v>2.8370078300000001</v>
-      </c>
-      <c r="U3" s="12">
-        <v>-1.2256935499999999</v>
-      </c>
-      <c r="V3" s="12">
-        <v>0.17510556999999999</v>
-      </c>
-      <c r="W3" s="12">
-        <v>-3.7271527038999999</v>
-      </c>
-      <c r="X3" s="12">
-        <v>1.4303510399999999</v>
-      </c>
-      <c r="Y3" s="12">
-        <v>0.64069902999999995</v>
-      </c>
-      <c r="Z3" s="12">
-        <v>-3.1054864819999999</v>
-      </c>
-      <c r="AA3" s="12">
-        <v>-1.131655447</v>
-      </c>
-      <c r="AB3" s="12">
-        <v>0.79082777999999998</v>
-      </c>
-      <c r="AC3" s="12">
-        <v>0.48833301000000001</v>
-      </c>
-      <c r="AD3" s="12">
-        <v>2.4405747400000002</v>
-      </c>
-      <c r="AE3" s="12">
-        <v>2.2319105399999999</v>
-      </c>
-      <c r="AF3" s="12">
-        <v>-2.8445007530000002</v>
-      </c>
-      <c r="AG3" s="12">
-        <v>1.8691053200000001</v>
-      </c>
-      <c r="AH3" s="12">
-        <v>1.7865442</v>
-      </c>
-      <c r="AI3" s="12">
-        <v>0.46573157999999998</v>
-      </c>
-      <c r="AJ3" s="12">
-        <v>-1.6207474100000001</v>
-      </c>
-      <c r="AK3" s="12">
-        <v>0.63915316</v>
-      </c>
-      <c r="AL3" s="12">
-        <v>-2.7040226999999999</v>
-      </c>
-      <c r="AM3" s="12">
-        <v>3.3526707139999998</v>
-      </c>
-      <c r="AN3" s="12">
-        <v>1.8537306600000001</v>
-      </c>
-      <c r="AO3" s="12">
-        <v>1.2142435899999999</v>
-      </c>
-      <c r="AP3" s="12">
-        <v>1.4840869999999999</v>
-      </c>
-      <c r="AQ3" s="12">
-        <v>-0.35528559999999998</v>
-      </c>
-      <c r="AR3" s="12">
-        <v>1.25781706</v>
-      </c>
-      <c r="AS3" s="12">
-        <v>2.2235665999999998</v>
-      </c>
-      <c r="AT3" s="12">
-        <v>0.47091863</v>
-      </c>
-      <c r="AU3" s="12">
-        <v>-0.50562399999999996</v>
-      </c>
-      <c r="AV3" s="12">
-        <v>0.57935950000000003</v>
-      </c>
-      <c r="AW3" s="12">
-        <v>1.81897135</v>
-      </c>
-      <c r="AX3" s="12">
-        <v>2.4012661999999998</v>
-      </c>
-      <c r="AY3" s="12">
-        <v>0.61957192000000005</v>
-      </c>
-      <c r="AZ3" s="12">
-        <v>1.86961172</v>
-      </c>
-      <c r="BA3" s="12">
-        <v>-1.37257849</v>
-      </c>
-      <c r="BB3" s="12">
-        <v>2.57072469</v>
-      </c>
-    </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="12">
-        <v>0.77516830999999997</v>
-      </c>
-      <c r="C4" s="12">
-        <v>0.99357899800000005</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0.21024248000000001</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0.29053579000000002</v>
-      </c>
-      <c r="F4" s="12">
-        <v>0.22670873</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0.41398231000000002</v>
-      </c>
-      <c r="H4" s="12">
-        <v>2.5688579999999999E-2</v>
-      </c>
-      <c r="I4" s="12">
-        <v>1.8322000000000001E-2</v>
-      </c>
-      <c r="J4" s="12">
-        <v>0.13565267</v>
-      </c>
-      <c r="K4" s="12">
-        <v>7.5821169999999993E-2</v>
-      </c>
-      <c r="L4" s="12">
-        <v>0.16549459999999999</v>
-      </c>
-      <c r="M4" s="12">
-        <v>4.686908E-2</v>
-      </c>
-      <c r="N4" s="12">
-        <v>1.352565E-2</v>
-      </c>
-      <c r="O4" s="12">
-        <v>0.81594288999999998</v>
-      </c>
-      <c r="P4" s="12">
-        <v>0.201211</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>5.6385949999999997E-2</v>
-      </c>
-      <c r="R4" s="12">
-        <v>6.4251790000000003E-2</v>
-      </c>
-      <c r="S4" s="12">
-        <v>1.8171389999999999E-2</v>
-      </c>
-      <c r="T4" s="12">
-        <v>8.3722759999999997E-3</v>
-      </c>
-      <c r="U4" s="12">
-        <v>0.23052384000000001</v>
-      </c>
-      <c r="V4" s="12">
-        <v>0.86225680000000005</v>
-      </c>
-      <c r="W4" s="12">
-        <v>8.6895590000000001E-4</v>
-      </c>
-      <c r="X4" s="12">
-        <v>0.16368178999999999</v>
-      </c>
-      <c r="Y4" s="12">
-        <v>0.52692757000000001</v>
-      </c>
-      <c r="Z4" s="12">
-        <v>4.3199809999999996E-3</v>
-      </c>
-      <c r="AA4" s="12">
-        <v>0.26737860299999999</v>
-      </c>
-      <c r="AB4" s="12">
-        <v>0.43569218999999998</v>
-      </c>
-      <c r="AC4" s="12">
-        <v>0.62911665999999999</v>
-      </c>
-      <c r="AD4" s="12">
-        <v>2.1246839999999999E-2</v>
-      </c>
-      <c r="AE4" s="12">
-        <v>3.3801629999999999E-2</v>
-      </c>
-      <c r="AF4" s="12">
-        <v>8.2216460000000009E-3</v>
-      </c>
-      <c r="AG4" s="12">
-        <v>7.2101620000000005E-2</v>
-      </c>
-      <c r="AH4" s="12">
-        <v>8.4844520000000007E-2</v>
-      </c>
-      <c r="AI4" s="12">
-        <v>0.64501017999999999</v>
-      </c>
-      <c r="AJ4" s="12">
-        <v>0.11628090000000001</v>
-      </c>
-      <c r="AK4" s="12">
-        <v>0.52791796000000002</v>
-      </c>
-      <c r="AL4" s="12">
-        <v>1.1518E-2</v>
-      </c>
-      <c r="AM4" s="12">
-        <v>2.3071239999999998E-3</v>
-      </c>
-      <c r="AN4" s="12">
-        <v>7.4341340000000006E-2</v>
-      </c>
-      <c r="AO4" s="12">
-        <v>0.23479685</v>
-      </c>
-      <c r="AP4" s="12">
-        <v>0.14895700000000001</v>
-      </c>
-      <c r="AQ4" s="12">
-        <v>0.72503810000000002</v>
-      </c>
-      <c r="AR4" s="12">
-        <v>0.21884714999999999</v>
-      </c>
-      <c r="AS4" s="12">
-        <v>3.4420899999999997E-2</v>
-      </c>
-      <c r="AT4" s="12">
-        <v>0.64134707999999996</v>
-      </c>
-      <c r="AU4" s="12">
-        <v>0.61707809999999996</v>
-      </c>
-      <c r="AV4" s="12">
-        <v>0.56697913</v>
-      </c>
-      <c r="AW4" s="12">
-        <v>7.962669E-2</v>
-      </c>
-      <c r="AX4" s="12">
-        <v>2.322302E-2</v>
-      </c>
-      <c r="AY4" s="12">
-        <v>0.54054902999999999</v>
-      </c>
-      <c r="AZ4" s="12">
-        <v>7.202886E-2</v>
-      </c>
-      <c r="BA4" s="12">
-        <v>0.18077871000000001</v>
-      </c>
-      <c r="BB4" s="12">
-        <v>1.5754790000000001E-2</v>
       </c>
     </row>
   </sheetData>
